--- a/flows/ATMP_fund_flow_data.xlsx
+++ b/flows/ATMP_fund_flow_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2760"/>
+  <dimension ref="A1:B2776"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -28035,6 +28035,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2761">
+      <c r="A2761" t="inlineStr">
+        <is>
+          <t>2024-02-22</t>
+        </is>
+      </c>
+      <c r="B2761" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2762">
+      <c r="A2762" t="inlineStr">
+        <is>
+          <t>2024-02-23</t>
+        </is>
+      </c>
+      <c r="B2762" t="n">
+        <v>1.339678</v>
+      </c>
+    </row>
+    <row r="2763">
+      <c r="A2763" t="inlineStr">
+        <is>
+          <t>2024-02-26</t>
+        </is>
+      </c>
+      <c r="B2763" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2764">
+      <c r="A2764" t="inlineStr">
+        <is>
+          <t>2024-02-27</t>
+        </is>
+      </c>
+      <c r="B2764" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2765">
+      <c r="A2765" t="inlineStr">
+        <is>
+          <t>2024-02-28</t>
+        </is>
+      </c>
+      <c r="B2765" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2766">
+      <c r="A2766" t="inlineStr">
+        <is>
+          <t>2024-02-29</t>
+        </is>
+      </c>
+      <c r="B2766" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2767">
+      <c r="A2767" t="inlineStr">
+        <is>
+          <t>2024-03-01</t>
+        </is>
+      </c>
+      <c r="B2767" t="n">
+        <v>2.8553388</v>
+      </c>
+    </row>
+    <row r="2768">
+      <c r="A2768" t="inlineStr">
+        <is>
+          <t>2024-03-04</t>
+        </is>
+      </c>
+      <c r="B2768" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2769">
+      <c r="A2769" t="inlineStr">
+        <is>
+          <t>2024-03-05</t>
+        </is>
+      </c>
+      <c r="B2769" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2770">
+      <c r="A2770" t="inlineStr">
+        <is>
+          <t>2024-03-06</t>
+        </is>
+      </c>
+      <c r="B2770" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2771">
+      <c r="A2771" t="inlineStr">
+        <is>
+          <t>2024-03-07</t>
+        </is>
+      </c>
+      <c r="B2771" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2772">
+      <c r="A2772" t="inlineStr">
+        <is>
+          <t>2024-03-08</t>
+        </is>
+      </c>
+      <c r="B2772" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2773">
+      <c r="A2773" t="inlineStr">
+        <is>
+          <t>2024-03-11</t>
+        </is>
+      </c>
+      <c r="B2773" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2774">
+      <c r="A2774" t="inlineStr">
+        <is>
+          <t>2024-03-12</t>
+        </is>
+      </c>
+      <c r="B2774" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2775">
+      <c r="A2775" t="inlineStr">
+        <is>
+          <t>2024-03-13</t>
+        </is>
+      </c>
+      <c r="B2775" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2776">
+      <c r="A2776" t="inlineStr">
+        <is>
+          <t>2024-03-14</t>
+        </is>
+      </c>
+      <c r="B2776" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
